--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_E</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F88" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="D89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="2" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" t="n">
+      <c r="D90" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="inlineStr">
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G125" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K125" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G126" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L126" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>Point</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K127" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>Initiating</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K128" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
+      <c r="C129" s="2" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K129" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B130" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K130" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B131" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
+      <c r="C131" s="2" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B132" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" t="b">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K125" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K132" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K126" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Point</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>6</v>
-      </c>
-      <c r="E127" t="inlineStr">
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>trigger</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>Landing</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" t="b">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K127" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>12</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Initiating</t>
-        </is>
-      </c>
-      <c r="D128" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K128" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>12</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="D129" t="n">
-        <v>8</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K129" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>12</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>9</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K130" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>12</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Home</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>10</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K131" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>12</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>will</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K132" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>12</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>12</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>trigger</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>13</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>12</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>14</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>12</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Landing</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B199" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C199" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="F200" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
+      <c r="G200" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
+      <c r="I200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L200" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
+      <c r="I201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L201" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="B202" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F202" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L202" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F203" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L203" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E204" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F204" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L204" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C205" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F205" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J205" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K205" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L205" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F206" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>2</v>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G200" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
+      <c r="D208" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" t="b">
-        <v>1</v>
-      </c>
-      <c r="J200" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K200" t="b">
-        <v>1</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>18</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D201" t="n">
-        <v>3</v>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G201" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" t="b">
-        <v>1</v>
-      </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K201" t="b">
-        <v>1</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>18</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D202" t="n">
-        <v>4</v>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G202" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" t="b">
-        <v>1</v>
-      </c>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K202" t="b">
-        <v>1</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>18</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>5</v>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" t="b">
-        <v>1</v>
-      </c>
-      <c r="J203" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K203" t="b">
-        <v>1</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>18</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>6</v>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G204" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I204" t="b">
-        <v>1</v>
-      </c>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K204" t="b">
-        <v>1</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>18</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>7</v>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G205" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I205" t="b">
-        <v>1</v>
-      </c>
-      <c r="J205" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K205" t="b">
-        <v>1</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>18</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D206" t="n">
-        <v>8</v>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>18</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D207" t="n">
-        <v>9</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>18</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>10</v>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
+        <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/99/word_level_predictions_99.xlsx
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G84" t="b">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G85" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -4974,158 +4974,158 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>9</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Critically</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>0</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F88" s="2" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>9</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" t="n">
         <v>9</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Critically Low Voltage Aircraft will land .</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>Voltage</t>
         </is>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" t="n">
         <v>2</v>
       </c>
-      <c r="E90" s="2" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6690,832 +6690,832 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>0</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>12</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>12</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>2</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>12</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>3</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" t="n">
         <v>12</v>
       </c>
-      <c r="B125" s="2" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C125" s="2" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D125" s="2" t="n">
+      <c r="D125" t="n">
         <v>4</v>
       </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" t="n">
         <v>12</v>
       </c>
-      <c r="B126" s="2" t="inlineStr">
+      <c r="B126" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C126" s="2" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" t="n">
         <v>5</v>
       </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L126" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K126" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" t="n">
         <v>12</v>
       </c>
-      <c r="B127" s="2" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C127" s="2" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" t="n">
         <v>6</v>
       </c>
-      <c r="E127" s="2" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L127" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K127" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" t="n">
         <v>12</v>
       </c>
-      <c r="B128" s="2" t="inlineStr">
+      <c r="B128" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C128" s="2" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Initiating</t>
         </is>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" t="n">
         <v>7</v>
       </c>
-      <c r="E128" s="2" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K128" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L128" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K128" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" t="n">
         <v>12</v>
       </c>
-      <c r="B129" s="2" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C129" s="2" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" t="n">
         <v>8</v>
       </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G129" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K129" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L129" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" t="n">
         <v>12</v>
       </c>
-      <c r="B130" s="2" t="inlineStr">
+      <c r="B130" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C130" s="2" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D130" s="2" t="n">
+      <c r="D130" t="n">
         <v>9</v>
       </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G130" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H130" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K130" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L130" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" t="n">
         <v>12</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C131" s="2" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D131" s="2" t="n">
+      <c r="D131" t="n">
         <v>10</v>
       </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H131" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L131" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" t="n">
         <v>12</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>will</t>
         </is>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" t="n">
         <v>11</v>
       </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L132" s="2" t="inlineStr">
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>12</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>now</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>12</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>12</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>trigger</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>13</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>12</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Auto</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>14</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>12</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Landing</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F136" s="2" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7609,11 +7609,11 @@
         </is>
       </c>
       <c r="I138" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K138" s="2" t="b">
@@ -7661,11 +7661,11 @@
         </is>
       </c>
       <c r="I139" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K139" s="2" t="b">
@@ -7713,11 +7713,11 @@
         </is>
       </c>
       <c r="I140" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K140" s="2" t="b">
@@ -7765,11 +7765,11 @@
         </is>
       </c>
       <c r="I141" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K141" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -7869,11 +7869,11 @@
         </is>
       </c>
       <c r="I143" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K143" s="2" t="b">
@@ -7921,11 +7921,11 @@
         </is>
       </c>
       <c r="I144" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K144" s="2" t="b">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G145" s="2" t="b">
@@ -7973,11 +7973,11 @@
         </is>
       </c>
       <c r="I145" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K145" s="2" t="b">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G160" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G175" t="b">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G176" t="b">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G189" t="b">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G190" t="b">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10694,572 +10694,572 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>18</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
+      <c r="D198" t="n">
         <v>0</v>
       </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>18</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>18</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>2</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>18</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>3</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>18</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>4</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>18</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>5</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" t="n">
         <v>18</v>
       </c>
-      <c r="B204" s="2" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C204" s="2" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D204" s="2" t="n">
+      <c r="D204" t="n">
         <v>6</v>
       </c>
-      <c r="E204" s="2" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F204" s="2" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G204" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H204" s="2" t="inlineStr">
+      <c r="G204" t="b">
+        <v>1</v>
+      </c>
+      <c r="H204" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L204" s="2" t="inlineStr">
+      <c r="I204" t="b">
+        <v>1</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K204" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" t="n">
         <v>18</v>
       </c>
-      <c r="B205" s="2" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C205" s="2" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>Avoidance</t>
         </is>
       </c>
-      <c r="D205" s="2" t="n">
+      <c r="D205" t="n">
         <v>7</v>
       </c>
-      <c r="E205" s="2" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F205" s="2" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G205" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H205" s="2" t="inlineStr">
+      <c r="G205" t="b">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K205" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L205" s="2" t="inlineStr">
+      <c r="I205" t="b">
+        <v>1</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K205" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>18</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>18</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
+      <c r="D207" t="n">
         <v>9</v>
       </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>18</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>10</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G233" t="b">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -12641,289 +12641,289 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13889,7 +13889,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G259" t="b">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
